--- a/src/attributions/attributions_ig_traj_488.xlsx
+++ b/src/attributions/attributions_ig_traj_488.xlsx
@@ -1007,28 +1007,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>-0.4667019280715205</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0.3846858995935022</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00189455150319938</v>
+        <v>-0.003582252589811255</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07967430794004772</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.02196200437633571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1037,25 +1037,25 @@
         <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>-0.1722340177876595</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.3003288997905195</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.03327019524687488</v>
+        <v>0.1258025001634858</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03775620805265047</v>
+        <v>-0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02127216139860866</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1064,157 +1064,157 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0.1955211877861541</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.1747299438881934</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.08007349327116538</v>
+        <v>0.09528894210728789</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.002982142111268802</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.05003478894530994</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.03046117376904777</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0.1311704012325126</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0180142380191775</v>
+        <v>-0.1415786046774034</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04392904594109261</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02507560082850504</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>-0.09926097689252464</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.04285915125817542</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.07985536362313739</v>
+        <v>0.1438776405917472</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.03296768430057781</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.03120223862844377</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0.565400520831479</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.5337497190590719</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02926934314077703</v>
+        <v>-0.2095207884692807</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.09454484035278744</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.06907613286383635</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>-0.09518065818777773</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.08220195497852749</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04452329059029404</v>
+        <v>-0.0877438747651834</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.02732695477256962</v>
+        <v>-0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.002391634336322253</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>0.1556862342842459</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>0.001052533246369743</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.02630150743457823</v>
+        <v>-0.3320239254885698</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.004847894866969607</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.02672501954409</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
@@ -1223,52 +1223,52 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>-0.1345838722570084</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.277883395820325</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03940532381467805</v>
+        <v>-0.08309917184448994</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.04814988641854186</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.005715661872280896</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>0.2002959211098397</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.1909381532689066</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.002115214164697854</v>
+        <v>-0.06261268834534339</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.02868998486129339</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.01118550898841627</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1277,28 +1277,28 @@
         <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0.00340871230383861</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.05450664776826945</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02689759321012922</v>
+        <v>0.08748810957717083</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.01231647852390617</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01122569695103675</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1307,79 +1307,79 @@
         <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0.1436172153640564</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.1630882962991448</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.005626952399346392</v>
+        <v>-0.0935114647842145</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.03367735442704782</v>
+        <v>-0</v>
       </c>
       <c r="DB2" t="n">
         <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.02381255608873079</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0.006283371112204082</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.1845655539266625</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.006777250319630538</v>
+        <v>0.0344778031231453</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.02187581914651088</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0008047011550480076</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>0.1238990717651996</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0.07744327120497345</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01882089927878892</v>
+        <v>0.06117069747894206</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.01400306950598009</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.03602965682737804</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
@@ -1388,22 +1388,22 @@
         <v>-0</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>0.08509769100650146</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>0.1542392024545403</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02373301618024099</v>
+        <v>0.1603254615404854</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.02734793264728199</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.03770308405932053</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
@@ -1412,25 +1412,25 @@
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>0.2231137695950056</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0.215130922500245</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.03121781288477162</v>
+        <v>-0.04953040079865403</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.04756915819746386</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.0551025185513469</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>0.1304107439810908</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.1442514037217011</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01068208939300776</v>
+        <v>-0.01291112092219768</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.001200807363096742</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.04230578697140266</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -1469,22 +1469,22 @@
         <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>0.1694850667261793</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.1777095251294548</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.000166664617081528</v>
+        <v>-0.06889265909546738</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.02382723376838865</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.01779977044082238</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
         <v>0</v>
@@ -1493,79 +1493,79 @@
         <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>0.1669803342648943</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>0.1565013211177333</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.02590530150919742</v>
+        <v>-0.1418555982618243</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.01913071163361235</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.05964914616470975</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>0.03468145562072295</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.01794149478629247</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.107761746732518</v>
+        <v>0.2265169175760449</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.01063086104336635</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.006492928999026709</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0.01558561635337</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>-0.02981174926990749</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.002718707887299494</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01229939970200413</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>-0</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>-0</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>-0</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>-0</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>-0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>-0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>-0</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>-0</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>-0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>-0</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>-0</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>-0</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>-0</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>-0</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
@@ -2145,25 +2145,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.05701928126257337</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007775142617574285</v>
+        <v>-0.04407182797653815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.147002644641901</v>
+        <v>-0.02356865129619731</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.03760202529546453</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2172,25 +2172,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.02521483631858222</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.03123415675636254</v>
+        <v>-0.03335718290725152</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0796329212641791</v>
+        <v>-0.01338430840234112</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03343723621378539</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.007750520804463668</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.08229987374349777</v>
+        <v>-0.00946905416050089</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.008805399652696473</v>
+        <v>0.01514579351294725</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.07243673568034931</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>-0</v>
@@ -2226,34 +2226,34 @@
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.01867839133153118</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.009230553853378199</v>
+        <v>0.01147479669104865</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05944992159025056</v>
+        <v>0.007771376837378263</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.00282268759264226</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0.01693344895480376</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2262,25 +2262,25 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08088209683893488</v>
+        <v>-0.0155045050644903</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01125513705182598</v>
+        <v>-0.006252562440634738</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02470930283795033</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.07302266781353239</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01631883382864721</v>
+        <v>-0.03472502549991104</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1804883769323857</v>
+        <v>-0.02155954503824335</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.1038421553340027</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
@@ -2307,34 +2307,34 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.02903506985319622</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.07602185375863554</v>
+        <v>-0.03843536854050697</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.01027968816923711</v>
+        <v>-0.01987844475699061</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.001759469179035163</v>
+        <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.03595536901831537</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2343,25 +2343,25 @@
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.05326365050983267</v>
+        <v>0.01362467336988746</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.005079668721598199</v>
+        <v>0.007473438273061599</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0.01004624773346361</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.02543298418951691</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2370,25 +2370,25 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.04057268121691936</v>
+        <v>-0.01677302946842314</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.08115921118566764</v>
+        <v>0.0024270047197002</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.04186280589170961</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>-0.01076807114662567</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2397,43 +2397,43 @@
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.002473451530971191</v>
+        <v>0.01486242951194978</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.03510251114896321</v>
+        <v>0.01205057764137815</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.01789484939306915</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>0.001814848595457616</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.05891413698000189</v>
+        <v>-0.002430282152926176</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.01950973870533411</v>
+        <v>-0.002777843255539224</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.01006160330826709</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.003807222770311498</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
@@ -2451,43 +2451,43 @@
         <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01301106376292001</v>
+        <v>0.01354095255662185</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.03767538226290638</v>
+        <v>0.0146221800155275</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.02965332366570866</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>0.00933429878654863</v>
       </c>
       <c r="DG4" t="n">
         <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01784601620701913</v>
+        <v>0.01163541764634889</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.04170334735938549</v>
+        <v>0.004188768464337353</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0131213556817088</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
@@ -2496,25 +2496,25 @@
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.0072717373642185</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.01756836271967836</v>
+        <v>0.01376330371396027</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.02841821576002154</v>
+        <v>-0.0173251076104598</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.03643731655138531</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
@@ -2523,25 +2523,25 @@
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.002880428846939636</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.03593550989144536</v>
+        <v>-0.02261259468521298</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.0006505238601021583</v>
+        <v>-0.00433899442152498</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.003105431687995357</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
         <v>-0</v>
@@ -2550,61 +2550,61 @@
         <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0</v>
+        <v>-0.004245760345035532</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.01924010093879152</v>
+        <v>0.006724415804546999</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.0625553886515489</v>
+        <v>0.004764687746619129</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.03955788568006026</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>0.00883050400624898</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.02547814056911825</v>
+        <v>0.009932941636039836</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.01558018100763112</v>
+        <v>0.0157164408972182</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.001170740925739195</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0</v>
+        <v>-0.002033576997858147</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2613,43 +2613,43 @@
         <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.009467945852855542</v>
+        <v>0.01320970812715461</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.03744302656748072</v>
+        <v>0.01551748291654144</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.02774182640175823</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>-0.01543354656530218</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.01191888155540779</v>
+        <v>-0.02467438383705136</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0.01343776985068621</v>
+        <v>0.008257416342651001</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.05144058306327456</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
@@ -2658,34 +2658,34 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>0.001789525256754446</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01070235335212558</v>
+        <v>0.0004865640967654394</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0171594463011954</v>
+        <v>0.02145911507506609</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.09641085751341058</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
         <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>-0.01797734213028336</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
@@ -2694,16 +2694,16 @@
         <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.05334622662415148</v>
+        <v>-0.003821323732838951</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.01740141323648288</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,22 +2714,22 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2849023242867358</v>
+        <v>-0.2711279876445548</v>
       </c>
       <c r="C5" t="n">
         <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0.2360533058946559</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1477100211670485</v>
+        <v>0.2139734129814401</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.15996869827477</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2738,25 +2738,25 @@
         <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.191383144665923</v>
+        <v>-0.1551849371544326</v>
       </c>
       <c r="L5" t="n">
         <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0</v>
+        <v>0.155506031209121</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.06872707479695016</v>
+        <v>0.1379087358836497</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1378443787800111</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2768,46 +2768,46 @@
         <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.07154598844898649</v>
+        <v>-0.09097600018001741</v>
       </c>
       <c r="U5" t="n">
         <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0</v>
+        <v>0.0824375452024025</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.07699884196719214</v>
+        <v>-0.007735876140625754</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.07331621935865131</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.09462885825447646</v>
+        <v>-0.04855375770294777</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>-0.02941810738279912</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0178394510464265</v>
+        <v>0.08126887332351614</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1808068906397591</v>
+        <v>-0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -2816,25 +2816,25 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK5" t="n">
         <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.09896888787545402</v>
+        <v>-0.130831201657047</v>
       </c>
       <c r="AM5" t="n">
         <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>-0.05053275657742139</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.05185388584759221</v>
+        <v>0.100925704105441</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.09221729932756885</v>
+        <v>-0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -2843,25 +2843,25 @@
         <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1917967668991069</v>
+        <v>-0.4144201778092566</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.2058904002611072</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.06138805269338495</v>
+        <v>0.1990334133778029</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.1382415771800939</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -2873,184 +2873,184 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.1758267914473569</v>
+        <v>0.02031282361567278</v>
       </c>
       <c r="BE5" t="n">
         <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0.126187556725891</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.0132435276552224</v>
+        <v>0.2229021620660003</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.04826643505918776</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL5" t="n">
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.05326663444926948</v>
+        <v>0.06840188800874134</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0.01975495362833976</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1336678464894795</v>
+        <v>-0.03184273537806377</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.1651301425075208</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
         <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0706991015995598</v>
+        <v>-0.2182241505082316</v>
       </c>
       <c r="BW5" t="n">
         <v>-0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>0.1229669097238407</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.1949979196049811</v>
+        <v>0.07092651312569997</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0.2333734516063954</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0.08298161111932569</v>
+        <v>0.0754443892768011</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>-0.03785508653058389</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.06007089085793427</v>
+        <v>-0.02876667069320623</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.05623417622649166</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
         <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01187912159582372</v>
+        <v>-0.04981061535821817</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.05835089133120162</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03072805740788528</v>
+        <v>0.01181479047537486</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0.05958163727961725</v>
+        <v>-0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
         <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0.07222630337304389</v>
+        <v>0.08200553931066712</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0.05057562600433908</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.04311620692401977</v>
+        <v>-0.04763269232209195</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.04145208006467693</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0.006384295715635506</v>
+        <v>0.06547273472598375</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0.02403842520580389</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03805602976641</v>
+        <v>-0.002678548013210618</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0.01528546954204131</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
@@ -3059,28 +3059,28 @@
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0.02739132293963379</v>
+        <v>0.1143853038298592</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>-0.03754306133521421</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.08440915337878577</v>
+        <v>0.1045555432265196</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0.1438915249688206</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
@@ -3089,25 +3089,25 @@
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.01365672001491612</v>
+        <v>-0.007862213606053001</v>
       </c>
       <c r="DY5" t="n">
         <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>0.0341080465801702</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01440801088650841</v>
+        <v>-0.01553298184274903</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0.01642026507692274</v>
+        <v>-0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
@@ -3116,55 +3116,55 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0.1518082048315659</v>
+        <v>0.00793261205834106</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>-0.08078721334955653</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.1105771124469642</v>
+        <v>-0.1109049602410694</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.08798967574203977</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.03118209383253615</v>
+        <v>0.06865838686327114</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>-0.006069160077645026</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.03053221882876934</v>
+        <v>-0.09787592393761449</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.1589922549845299</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
@@ -3173,19 +3173,19 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0.07780897649983737</v>
+        <v>0.08076221202348834</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>-0.07945088655796798</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.06558938413995571</v>
+        <v>-0.02813799982353132</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.06596103435549205</v>
+        <v>0</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
@@ -3194,25 +3194,25 @@
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0.0481803304101134</v>
+        <v>0.0277205883919439</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0.03497800049707257</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.01773204528395931</v>
+        <v>-0.04981604869361134</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.09110410599287637</v>
+        <v>-0</v>
       </c>
       <c r="FM5" t="n">
         <v>-0</v>
@@ -3224,22 +3224,22 @@
         <v>-0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0.02552004949563093</v>
+        <v>-0.00244238115912955</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>-0.0985435748813578</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.009754082122201605</v>
+        <v>-0.001443396607080473</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0.007411400397882509</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
         <v>0</v>
@@ -3248,28 +3248,28 @@
         <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.02685581300914952</v>
+        <v>0.01320609026703053</v>
       </c>
       <c r="GA5" t="n">
         <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.0265515259252674</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01147476637150454</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
@@ -3280,52 +3280,52 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3440744722182384</v>
+        <v>0.4983968840139405</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1111245207543608</v>
+        <v>-0.1960818227080932</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04952937082987849</v>
+        <v>-0.1340491263732326</v>
       </c>
       <c r="F6" t="n">
         <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.295614789762697</v>
+        <v>0.3933200085796679</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.05780240598103852</v>
+        <v>-0.1239171608252099</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.009706752731594381</v>
+        <v>-0.1356498282216958</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3334,25 +3334,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004448326577733179</v>
+        <v>0.1211826115375206</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02975059855806159</v>
+        <v>0.01095062510312352</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1347481868109955</v>
+        <v>0.1292355755413719</v>
       </c>
       <c r="X6" t="n">
         <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>-0</v>
@@ -3364,43 +3364,43 @@
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.135090664518964</v>
+        <v>0.2145290972688035</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.05261767155553227</v>
+        <v>0.01043596495082893</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.05389809989340038</v>
+        <v>-0.04302476753102772</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.1320030993354429</v>
+        <v>-0.01027778191419253</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.04939489190699355</v>
+        <v>-0.08596980347090974</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.003476873564905048</v>
+        <v>-0.12243702146784</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -3412,82 +3412,82 @@
         <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT6" t="n">
         <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.4296806741935356</v>
+        <v>0.6058274128564402</v>
       </c>
       <c r="AV6" t="n">
         <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02363990609318702</v>
+        <v>-0.06868592794873193</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.04311868697309858</v>
+        <v>0.04564711082150145</v>
       </c>
       <c r="AY6" t="n">
         <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
         <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.05429272831063359</v>
+        <v>0.1483809576332202</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.05062164440948208</v>
+        <v>-0.07806925391885007</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.02968144880845713</v>
+        <v>-0.08846264585331852</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.03276775065232837</v>
+        <v>0.1333130321339134</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.0817290676357873</v>
+        <v>0.05642358230947121</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03364280558959724</v>
+        <v>0.2431474176461969</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
         <v>-0</v>
@@ -3499,22 +3499,22 @@
         <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.146668003630097</v>
+        <v>0.2655376010211759</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.01807989177782621</v>
+        <v>-0.01386405303996211</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.1002249801415543</v>
+        <v>0.09254182175893665</v>
       </c>
       <c r="BZ6" t="n">
         <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
@@ -3523,19 +3523,19 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0.1427382576728521</v>
+        <v>-0.1281870918071553</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0190434154868231</v>
+        <v>0.02533457435841729</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.01937810670582834</v>
+        <v>0.02706250577385388</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
@@ -3544,55 +3544,55 @@
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0.06313660889635724</v>
+        <v>-0.09953865882393335</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.03871135448299168</v>
+        <v>-0.1079579257310274</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.123624640457566</v>
+        <v>-0.1424554843724411</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
         <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0.1290665218636972</v>
+        <v>-0.1141336217733712</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.03728946386288542</v>
+        <v>0.04208438202404405</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.03815900927438029</v>
+        <v>0.01777326761555184</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3607,25 +3607,25 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0.1312506683531159</v>
+        <v>-0.01228429709374339</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.02917827838642987</v>
+        <v>0.1776468562669744</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0307106717069204</v>
+        <v>0.01381009069896385</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
         <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
@@ -3634,16 +3634,16 @@
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.05893323604871124</v>
+        <v>-0.130575598739882</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.0102909989846311</v>
+        <v>-0.1140455576315816</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.1103285972140318</v>
+        <v>-0.1055108489354035</v>
       </c>
       <c r="DS6" t="n">
         <v>-0</v>
@@ -3652,31 +3652,31 @@
         <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0.103991259776276</v>
+        <v>-0.176030720148956</v>
       </c>
       <c r="DY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.01778291209138604</v>
+        <v>-0.04752365240029822</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.06059868535002063</v>
+        <v>-0.07870372961090372</v>
       </c>
       <c r="EB6" t="n">
         <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3688,16 +3688,16 @@
         <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>-0.1231510891883355</v>
+        <v>-0.1207310531500281</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.05524306053560434</v>
+        <v>0.1173638690234988</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.06990307293510359</v>
+        <v>0.1892873251444971</v>
       </c>
       <c r="EK6" t="n">
         <v>-0</v>
@@ -3709,25 +3709,25 @@
         <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0.04976490801443849</v>
+        <v>-0.1205206906531203</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.04127963828287246</v>
+        <v>0.0339314158934968</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.04237149441563414</v>
+        <v>0.09209771468745467</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
         <v>0</v>
@@ -3742,100 +3742,100 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>-0.1370408786782377</v>
+        <v>-0.1125613003437676</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.02612642297970335</v>
+        <v>0.04872843462208998</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.03918230738957344</v>
+        <v>0.04773965018940341</v>
       </c>
       <c r="FC6" t="n">
         <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
         <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.05645896435945756</v>
+        <v>-0.1960593038356874</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.09706594650383381</v>
+        <v>0.05314042000316321</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.02712267768810287</v>
+        <v>-0.0954602950584733</v>
       </c>
       <c r="FL6" t="n">
         <v>-0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>-0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.02941024680758526</v>
+        <v>0.02940615222200384</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0.009997631581490219</v>
+        <v>-0.03638503545686785</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.009459644057400088</v>
+        <v>-0.09063597326374805</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
         <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0.0858352271303236</v>
+        <v>-0.08553080704328381</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>-0.03612625372186097</v>
+        <v>-0.06801081502832355</v>
       </c>
       <c r="GC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
         <v>0</v>
@@ -3844,24 +3844,24 @@
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3021404341823472</v>
+        <v>0.2070634505277382</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1847311010478894</v>
+        <v>-0.1527891103966427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1325904304179076</v>
+        <v>0.139728663288919</v>
       </c>
       <c r="F7" t="n">
         <v>-0</v>
@@ -3873,22 +3873,22 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2439759935243914</v>
+        <v>0.1917258400045113</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1479372745707296</v>
+        <v>-0.04985037874858319</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02677472729084355</v>
+        <v>0.07265805899522786</v>
       </c>
       <c r="O7" t="n">
         <v>-0</v>
@@ -3897,31 +3897,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04986493820470438</v>
+        <v>0.03951392609810863</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1260288300714586</v>
+        <v>0.1158493505250817</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.04377346868605388</v>
+        <v>0.07559995758532403</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -3930,19 +3930,19 @@
         <v>-0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0187977899327604</v>
+        <v>-0.07514302565019154</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02037215827472929</v>
+        <v>-0.05468898661808234</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.07444593381027245</v>
+        <v>-0.03315903206327819</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3957,19 +3957,19 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1315530417490649</v>
+        <v>-0.03081981300858528</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.09624162717880555</v>
+        <v>-0.02821140374572752</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.02372790103393432</v>
+        <v>-0.06527354417435588</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3981,49 +3981,49 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1983788761449636</v>
+        <v>0.1507135222550541</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.05123656945441896</v>
+        <v>-0.06687335919845093</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1337416644361124</v>
+        <v>0.2616230709455466</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
         <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.125756711383441</v>
+        <v>0.2190484409978439</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.1112167885311797</v>
+        <v>0.01422336449566378</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.07112166175296684</v>
+        <v>0.05924868341714198</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4035,76 +4035,76 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.04696274439664229</v>
+        <v>0.08814029639012623</v>
       </c>
       <c r="BM7" t="n">
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.04198116134614444</v>
+        <v>0.03412363422752315</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05107142368877657</v>
+        <v>0.1706622831733927</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1616024281718963</v>
+        <v>0.0465102087152437</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>-0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0.07163839219548095</v>
+        <v>0.007585108612994046</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.07675781495361618</v>
+        <v>0.110756428040185</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.0916451001937689</v>
+        <v>-0.03724474927715508</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.03086828248746145</v>
+        <v>-0.02055046533162123</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.06041578344100591</v>
+        <v>-0.0429480442387252</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4119,34 +4119,34 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.03445150179553952</v>
+        <v>-0.05572466906644654</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
         <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.0168530725908562</v>
+        <v>-0.1332427231054665</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.1010507160348002</v>
+        <v>-0.1162277573287646</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.07451909991162482</v>
+        <v>-0.01667374347957047</v>
       </c>
       <c r="CW7" t="n">
         <v>-0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.01618131486282886</v>
+        <v>0.006332038206917859</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.08383059932566425</v>
+        <v>-0.03487417398405242</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4173,19 +4173,19 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.01003215860559831</v>
+        <v>-0.02163093039542517</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.0148241307631206</v>
+        <v>0.07475444571538935</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.03394699025004862</v>
+        <v>-0.03584592152099914</v>
       </c>
       <c r="DJ7" t="n">
         <v>0</v>
@@ -4194,58 +4194,58 @@
         <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.02686371638106389</v>
+        <v>-0.0502686641409219</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.01778155953927965</v>
+        <v>0.0689678159436011</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02691416105789046</v>
+        <v>-0.1076274657611254</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.01538291430086894</v>
+        <v>-0.07151857677275862</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0.01380656001046249</v>
+        <v>-0.02347601385324561</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.03080011067522512</v>
+        <v>-0.08979990174464668</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
@@ -4254,25 +4254,25 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.185708757930721</v>
+        <v>-0.03874323153515925</v>
       </c>
       <c r="EG7" t="n">
         <v>0</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.04784447944774572</v>
+        <v>0.02977845107568349</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.05202907184740976</v>
+        <v>0.01780462056955368</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.04485545574239642</v>
+        <v>0.01243484029829679</v>
       </c>
       <c r="EP7" t="n">
         <v>0</v>
@@ -4290,16 +4290,16 @@
         <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.06689532737581337</v>
+        <v>0.03368536203129598</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.05197448769636322</v>
+        <v>0.01847656782168937</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.08098478628146313</v>
+        <v>-0.02151086311395828</v>
       </c>
       <c r="EY7" t="n">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.02379237817423908</v>
+        <v>-0.01032136593724652</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.07510045691291535</v>
+        <v>-0.04605219388245954</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
@@ -4332,22 +4332,22 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.07374620932412446</v>
+        <v>-0.0426524212475698</v>
       </c>
       <c r="FH7" t="n">
         <v>0</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.09099680855415962</v>
+        <v>0.02823741710139682</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.08323544521044983</v>
+        <v>-0.1862454436008055</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
@@ -4362,34 +4362,34 @@
         <v>-0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.03182796024566387</v>
+        <v>0.007815398110875709</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.06654473581824526</v>
+        <v>-0.0285089755736265</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.01099535728862417</v>
+        <v>0.07697554240654686</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.09831821384443601</v>
+        <v>0.03651876679948103</v>
       </c>
       <c r="FZ7" t="n">
         <v>0</v>
@@ -4398,30 +4398,30 @@
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.02470374561870065</v>
+        <v>-0.0508204063516501</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4499,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4526,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4553,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4742,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4769,10 +4769,10 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4850,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4877,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5365,10 +5365,10 @@
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5556,52 +5556,52 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1717341811407261</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.559524000778469</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.2330714662812555</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0579027098710382</v>
+        <v>-0.02770239934542904</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03586760524538603</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1336763734984399</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.3230855615148865</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.2397277187806909</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.07411826617214672</v>
+        <v>-0.02953011226699564</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01035184154289337</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -5610,52 +5610,52 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002749616521875283</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.120066479444405</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>-0.001989388732499831</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04966865379599885</v>
+        <v>0.1981399025553424</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.05543757868329775</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01809874497193696</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.09296925325541129</v>
       </c>
       <c r="AD10" t="n">
         <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>0.05401021876134467</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02385288284344576</v>
+        <v>-0.06264986771571722</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.04536564272605446</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -5664,160 +5664,160 @@
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.03479729102068949</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0.01235659805607243</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.06100369606455219</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.006306655781487106</v>
+        <v>0.0002119291363684451</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01397340397914023</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1098064331639036</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.5098456828529349</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>0.09552904747648819</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.004616299627082134</v>
+        <v>0.1819136161770179</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.02039456424877907</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.03903665816026596</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.08121509447588829</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0.2667270040379431</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.02915537411670898</v>
+        <v>-0.186434618143963</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.02575713025275909</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.03218078783726019</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.1251908454217623</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0.003148522337728738</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04936799679358722</v>
+        <v>0.2043354629318599</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.00738614826447298</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.05413886516678207</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1528064659880441</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.03774634467414721</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01179720669901258</v>
+        <v>0.1017985922537798</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01093058085915474</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.04852730675674501</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.1252460441192026</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>-0.005043077300149587</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01838266153557789</v>
+        <v>-0.02220350025576284</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.01519413170690007</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -5826,160 +5826,160 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.005496226142947981</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.001641613671571868</v>
       </c>
       <c r="CO10" t="n">
         <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>-0.234997905177404</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.02391910939586765</v>
+        <v>-0.08469055862311795</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.02238142312479377</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.04636403625433299</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.0891056202446842</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.03755195343861334</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.006929305036104816</v>
+        <v>-0.03639352869303281</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.009344807206521982</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.006185095160889841</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.02845429717720982</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>0.08827535161278906</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0040403114304516</v>
+        <v>0.04361921855614237</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.003293308189866426</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01435859309872458</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.08181816000405309</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.02359114695772073</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.02945399513081439</v>
+        <v>-0.04949029273662999</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.03131506830088156</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.008225863740518645</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.05132575569395859</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.0520147183943462</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01807109891083095</v>
+        <v>-0.08288540225719272</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0008003122418630379</v>
+        <v>-0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.07643781727909225</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.1034471576652698</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0</v>
+        <v>-0.02708120228071764</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.004496141395218005</v>
+        <v>0.08740387655414349</v>
       </c>
       <c r="EK10" t="n">
         <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.02519437624668797</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>0</v>
@@ -5988,25 +5988,25 @@
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.01244652732165419</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>0.009553618274564005</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>0.01987120470674911</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.05286907133384894</v>
+        <v>0.01159875883617959</v>
       </c>
       <c r="ET10" t="n">
         <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001231377364146691</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
         <v>0</v>
@@ -6015,132 +6015,132 @@
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.04256536820626543</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.0855048522954759</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>-0.02447884065062331</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003971140866239571</v>
+        <v>-0.003702749208864165</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.009379654496191365</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.05215857497218215</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.01479937446324157</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>-0.008459869775285591</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.02061910032580386</v>
+        <v>-0.02279557559513727</v>
       </c>
       <c r="FL10" t="n">
         <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.004085091058325632</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.01420349926653807</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.04621183659143154</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.03337502380121125</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.008820883619425719</v>
+        <v>-0.05881057984368338</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.003258557707918778</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.02967090740500363</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.07406946616481051</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.1428375052823531</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.01714981823056302</v>
+        <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2011101628201904</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.1508827158852239</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.06094043548821911</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02233371939722309</v>
+        <v>-0.05540472024496717</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.08895143080684446</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6152,211 +6152,211 @@
         <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1639637559032142</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0.1136448567996548</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.05767046225718894</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.04514017928487968</v>
+        <v>-0.03699303312441549</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.06991022176452612</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005052787269088395</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.01178140136480864</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01993802666484323</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06026304985438551</v>
+        <v>-0.008926459609585118</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.01436220799389488</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.008926536574033851</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0.01322699201789526</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.002290193461425265</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02495999725776577</v>
+        <v>0.01653185008956016</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0</v>
+        <v>0.004366665881559117</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03062204433168536</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.008973212011039849</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.007610002763153187</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.0196586133572323</v>
+        <v>-0.01569315526480149</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01367214951701976</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1026046190076334</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.1153938711451974</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.03564542481768069</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.009703964211680027</v>
+        <v>-0.01787878461818319</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.02147783924078349</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.04688190899942268</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.04234387283958466</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.02963829202913155</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.02523310155281494</v>
+        <v>-0.05423539485419909</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.07088993894401294</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.01548681413675385</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.0439984694098617</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.02453999334581745</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
         <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0609628524155065</v>
+        <v>0.02614911999761512</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.02462848970999234</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.06438351256556327</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.04266072859301578</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.009319246833703538</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01456365690138099</v>
+        <v>-0.008102824211839761</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>-0.003687665916994841</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6368,160 +6368,160 @@
         <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.04921634687036596</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.02642850495499472</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01896825918803635</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.003485249607486448</v>
+        <v>0.004260049307465665</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.02466206814603156</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.009354471984305718</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.007458122977956908</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.003600370797274965</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.04452274949769811</v>
+        <v>-0.0006786419483999593</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.02317395392696445</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.04541844652746763</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.02001764049277187</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.01995946701545346</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.01207161939858268</v>
+        <v>0.007080366347209785</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.02416010117408244</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.006052947446627561</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.0165175536301642</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02004727043450802</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0242444654866683</v>
+        <v>0.02586406644362148</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>0.007079006932766817</v>
       </c>
       <c r="DK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.002288586218635739</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.006781662007949998</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.001066204616744205</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01826718651692944</v>
+        <v>0.01788579728714385</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>-0.008324347205209054</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.006507119460172426</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.04172477594334412</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.008035076256323262</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.001351197715230795</v>
+        <v>0.01874645529140154</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0.01161392802629558</v>
       </c>
       <c r="EC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6530,157 +6530,157 @@
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.07019484992589253</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.03046951967564806</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.01778263939473116</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.001531315473068878</v>
+        <v>0.007045408054830694</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.02425673387379929</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.02028310481728449</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.009827443909543555</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02247228793306976</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
         <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.007217915436101842</v>
+        <v>0.006522964190888415</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.005877779717316957</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.04438666483135873</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.02103444219215935</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01844243841792598</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.006773975967737215</v>
+        <v>0.01105978135877241</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.02903842041241254</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.03946550570861891</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.02336827631257295</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01555366888961788</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.03611094474314782</v>
+        <v>0.007236959987348461</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.01423656440811494</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.009156444434428786</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>0.005684979372316152</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.009443281833070095</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.02027010294051984</v>
+        <v>-0.02068423631315137</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.008726168620858605</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.02357879450130093</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>-0.0007518997508050961</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.008133414899797525</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.008598198111988859</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
@@ -6694,25 +6694,25 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.174443073680543</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.5813243576885919</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.2206994894259464</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03647096128753358</v>
+        <v>-0.07252604116140544</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03352259511006867</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -6721,25 +6721,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1489721857578669</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.3569896699763817</v>
       </c>
       <c r="L12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.2071593044659994</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.06103780168025649</v>
+        <v>-0.06665193226483974</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.008737431012569349</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -6748,52 +6748,52 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01195072603541285</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1249257747491337</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.02355359952968996</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.05505909932632503</v>
+        <v>0.1110585249895825</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.05267711805046141</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01164439870251716</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.03518189401378809</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.001077197337505317</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01936248072012276</v>
+        <v>-0.01199750620940051</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.04297481576698924</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -6802,52 +6802,52 @@
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.03378970005611254</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.02150029386535373</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.07057779939127096</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.009788396564418619</v>
+        <v>-0.05701923833431558</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01061523332461604</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.08855871303387772</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.5025124717972149</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.02190687204463071</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.008528165492725847</v>
+        <v>0.1062287837388484</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0223485457241062</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
@@ -6856,52 +6856,52 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.04131726282071159</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.05983557086145651</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>-0.206401151511279</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01509709762290533</v>
+        <v>-0.1324715814607463</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.02008910113061011</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.02327959200096146</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1583608267954703</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.06112346576495088</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.03848921550964272</v>
+        <v>0.1992811513780138</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.008607491673940232</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
         <v>-0</v>
@@ -6910,106 +6910,106 @@
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.04744785218723205</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1642993282539399</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.00212385463958162</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.004990357478357623</v>
+        <v>0.05186101998581934</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.01031254750329663</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.0440372375936758</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.1117997928943105</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>0.004731869409532737</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.00802022814108338</v>
+        <v>-0.01736936817915298</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0.01362220977204848</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.00276412290073728</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.01068045688767222</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>-0.1212422279322519</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.03456271226126358</v>
+        <v>-0.111511230346818</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0.02115220483157207</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.04119952923662903</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.07739655762398902</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0.04811590700710487</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.001581249152434401</v>
+        <v>-0.02580664016101752</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0.008024839512612071</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
         <v>-0</v>
@@ -7018,25 +7018,25 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.004283395676812117</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.04762004907848635</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>0.06158190868520314</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.001191279101359156</v>
+        <v>0.03325450218359662</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0.003709212382689917</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
         <v>0</v>
@@ -7045,106 +7045,106 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01329270341295272</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.08595384562032246</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0.004288517580598857</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.02790272447626463</v>
+        <v>-0.04198705855323432</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.02976924110971505</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.00188651218345802</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.1167563420244909</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.01496696756663771</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01199242416497615</v>
+        <v>0.04456813443004735</v>
       </c>
       <c r="EB12" t="n">
         <v>-0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.001076872672739898</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.0712045715093917</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.09548131834028595</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>0.01601281293796111</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.002087753912070224</v>
+        <v>0.06163472843071433</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0.02668310416311923</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.01661293767049376</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.002499175480886409</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0.008703273729854412</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.04890793415971004</v>
+        <v>0.02338733960352353</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.003265125337841747</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
         <v>0</v>
@@ -7153,132 +7153,132 @@
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.03820500759530216</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.07610308434348266</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>0.003396274756274597</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.002605436680097982</v>
+        <v>0.009733433973316323</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0.008482281347586332</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.04231356635173884</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.08058879776498599</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.00641199004439016</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.03883468533678292</v>
+        <v>0.05149287077661532</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.007182997868544987</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
         <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.007717140738481843</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.05826825703075308</v>
       </c>
       <c r="FR12" t="n">
         <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>0.01198161159234575</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.009099233529402716</v>
+        <v>-0.08264678248169126</v>
       </c>
       <c r="FU12" t="n">
         <v>-0</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.002221737096953406</v>
+        <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.03324570931283527</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.07896142475276292</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.132879181348353</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.01733596026890221</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6951760541547445</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.9555535467151666</v>
       </c>
       <c r="C13" t="n">
-        <v>1.136682438286876</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
         <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2964353250529763</v>
+        <v>0.125218400974022</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.367357707842619</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
@@ -7287,25 +7287,25 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6742716586837292</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.774964630484031</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9922486288697694</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1113054677806017</v>
+        <v>-0.08593641735988644</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.9513003471920908</v>
       </c>
       <c r="P13" t="n">
         <v>-0</v>
@@ -7314,163 +7314,163 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.05969319069757434</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0.08767046504047085</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09282505303971705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1697804460554689</v>
+        <v>0.255751955271979</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.1525096043649294</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02895042279983087</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0.0365806195114871</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02704104669888993</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.02475271411090209</v>
+        <v>0.193784556180716</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.136856267870123</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.192542943537717</v>
+        <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>-0.106279521899657</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1794400029156026</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02842261960983459</v>
+        <v>-0.04253660065987656</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.2565428489980843</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.3135514790054477</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>-0.6172717534061476</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.5563908719058155</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1097054216123935</v>
+        <v>0.2705298344331309</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0.8951261879568482</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA13" t="n">
         <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0.05214017761288169</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0.2789822097179999</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.2542790978323709</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
         <v>-0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.4070183198825225</v>
+        <v>0.1325191045465678</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>0.341250828619303</v>
       </c>
       <c r="BI13" t="n">
         <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.03679513631641441</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>-0.3118136950174849</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.2268784123346203</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
         <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.3239456523475145</v>
+        <v>-0.1115819091716627</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.02734112332789938</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>-0</v>
@@ -7479,22 +7479,22 @@
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.3514986930553215</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0.3985786115602167</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.3014084314203937</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.07867869829320688</v>
+        <v>0.08213475946453966</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>0.3854074217352527</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
@@ -7503,25 +7503,25 @@
         <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.1712263361283538</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>0.1664524391208402</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.2212912116050476</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.01237390806844732</v>
+        <v>-0.02167547117803665</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>-0.2299443871168447</v>
       </c>
       <c r="CJ13" t="n">
         <v>0</v>
@@ -7530,28 +7530,28 @@
         <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.007633214999690538</v>
+        <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>0.04461671217303093</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.1840984789395975</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1789067195676783</v>
+        <v>-0.228126154058156</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>0.02552499353990513</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
@@ -7560,22 +7560,22 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.1531792294159129</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>0.1385072600200643</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.2036789850907667</v>
+        <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.09627870292799356</v>
+        <v>-0.02132292414102758</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>-0.2484861342905257</v>
       </c>
       <c r="DB13" t="n">
         <v>-0</v>
@@ -7584,25 +7584,25 @@
         <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.03775406911936118</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0</v>
+        <v>0.2395404847638643</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.06979003442310336</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.01895025141888812</v>
+        <v>-0.2939200123485097</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.003028341296505732</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,82 +7611,82 @@
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>4.090053060331638e-05</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>0.0383313838986394</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.06470711923639455</v>
+        <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.1348050127823844</v>
+        <v>-0.05398197819079133</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0.1432666533808165</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.06647249665915733</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.1286753574867674</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.03005933702319386</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.06754392585713308</v>
+        <v>-0.1064783166537736</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.1019188304297612</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.2899720342222657</v>
+        <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0</v>
+        <v>0.1043654927206298</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.2857686159116953</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
         <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.01334604113332345</v>
+        <v>-0.05874249858191107</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.1857520990892341</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7695,22 +7695,22 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.08830865964182107</v>
+        <v>-0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>0.09569497589024525</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0637484386322522</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
         <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.1259409631633454</v>
+        <v>-0.008703144792652799</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.002452998929811908</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
@@ -7719,25 +7719,25 @@
         <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.1761834796928174</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0</v>
+        <v>0.1321316036627264</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.2039999250588187</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.07498297713522861</v>
+        <v>-0.0492038552903505</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>-0.2257031928486266</v>
       </c>
       <c r="FD13" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0.08009217632127594</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.0147379497163268</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.2390575534664684</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.03166131572094862</v>
+        <v>-0.0152848375093764</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>-0.1619539842595783</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
@@ -7773,25 +7773,25 @@
         <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.03649242121268526</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01578419601728682</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.1406106357488541</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.06225170328964336</v>
+        <v>0.1171188790328716</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>-0.1960341491796673</v>
       </c>
       <c r="FV13" t="n">
         <v>0</v>
@@ -7803,28 +7803,28 @@
         <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>-0.06181761606301898</v>
+        <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.03153613549508923</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.1498546203549468</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>0.1265500728807336</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
         <v>0</v>
@@ -7832,91 +7832,91 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0.1579309657606398</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5592477095951893</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05361022064449891</v>
+        <v>-0.002062509904998334</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.1440615630925162</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3870109050944985</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0.1233197493734981</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5883320881961074</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09291437449588411</v>
+        <v>0.01531587392365156</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0.1081050802752104</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>-0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.322537476460365</v>
+        <v>-0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.02037933682254647</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01360816014156824</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.07760669546289369</v>
+        <v>-0.01996452474508568</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0.04084137734115367</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03063151270092158</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.02430063161776922</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.159788353499092</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
@@ -7925,253 +7925,253 @@
         <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.07996130066233505</v>
+        <v>-0.01015817872023107</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>-0.01878738735423515</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.03181375472440749</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0.02660686185573689</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.1503658468918554</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
         <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1159992536095386</v>
+        <v>0.02169268939640987</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>-0.01854946827056193</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.05674996612531757</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0.08048047464782969</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.3323153117850068</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.03433870030700274</v>
+        <v>-0.04839249995448342</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0.06952785216480141</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.1112931265233288</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>0.03912543410912706</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.03209723271763453</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1261357498790512</v>
+        <v>0.01978195399292558</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>-0.06206423708270363</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
         <v>-0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0.1888301694500592</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0.0009339359621069522</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0.1004557251945691</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.02084884480739096</v>
+        <v>-0.02317516172825269</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0.005510130071806345</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.07970791010449636</v>
+        <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0.04272999750064014</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.06518068808385338</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
         <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.174728349185962</v>
+        <v>-0.009650314691324205</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0.04152762580788315</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
         <v>0</v>
       </c>
       <c r="CC14" t="n">
-        <v>-0.1490181257818905</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0</v>
+        <v>-0.02950793266379362</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0.1000347924842256</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.01875950155462058</v>
+        <v>0.003119697467546191</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>0.03210219308404522</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.06630614294465381</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>-0.003887501391928498</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.2265151587635491</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.03992367671890869</v>
+        <v>0.03765491202443046</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0.006480832166932005</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0.05956002984809155</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>-0.02748902616889345</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0.07293280709592237</v>
+        <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY14" t="n">
         <v>-0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.03197707700005078</v>
+        <v>0.006438022574553357</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>0.02715361035583444</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0772810446982074</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0.0003229328054935052</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0.003470067257822583</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.008256812564046097</v>
+        <v>0.003639453667989901</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>0.02504617243515229</v>
       </c>
       <c r="DK14" t="n">
         <v>-0</v>
@@ -8180,40 +8180,40 @@
         <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.01100721108254025</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>-0.01165685776789508</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.008638992538809466</v>
+        <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.0171813569264192</v>
+        <v>0.005441236865295638</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>0.0332996145674316</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0.0823677573737521</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0</v>
+        <v>-0.009573496140179692</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0.101263383526047</v>
+        <v>0</v>
       </c>
       <c r="DY14" t="n">
         <v>-0</v>
@@ -8222,118 +8222,118 @@
         <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.1562007385564905</v>
+        <v>0.006375622279817778</v>
       </c>
       <c r="EB14" t="n">
-        <v>0</v>
+        <v>0.01023388080882538</v>
       </c>
       <c r="EC14" t="n">
         <v>-0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.1019568479645701</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0.02497385562171606</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0.07098900285971298</v>
+        <v>0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.01628767196854688</v>
+        <v>0.01184644214678479</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0.01918113999791521</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.08870278435066863</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0</v>
+        <v>0.008675408975855503</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.09121656624918452</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.01093842420662333</v>
+        <v>-0.01691449656249501</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0.004402519263486972</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.09071681562969988</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0.02585173574717364</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0.09194178576027952</v>
+        <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.01870851827175924</v>
+        <v>0.01051616013090552</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0.02741666215149489</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.07827692911288513</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0.01411831644716053</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.01396643193052547</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.07385640422546574</v>
+        <v>0.001086091336808162</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0</v>
+        <v>-0.0007414155784733195</v>
       </c>
       <c r="FM14" t="n">
         <v>-0</v>
@@ -8342,25 +8342,25 @@
         <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0.02031581198080002</v>
+        <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0</v>
+        <v>-0.01406957366843699</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0.01606816357340537</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
         <v>-0</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01105425239864289</v>
+        <v>-0.005908819036342376</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0.03298655549764764</v>
       </c>
       <c r="FV14" t="n">
         <v>-0</v>
@@ -8369,13 +8369,13 @@
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.09035452255530974</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0</v>
+        <v>0.002011294494542216</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0.02199021851171125</v>
+        <v>-0</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
@@ -8384,19 +8384,19 @@
         <v>-0</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>0.006441024939235725</v>
       </c>
       <c r="GE14" t="n">
         <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>-0.006936130450296137</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
